--- a/docs/CARTERA_CCD.xlsx
+++ b/docs/CARTERA_CCD.xlsx
@@ -8914,21 +8914,9 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -11842,21 +11830,9 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -12808,21 +12784,9 @@
           <t>YOLANDA OLIVA</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
           <t>OPERATIVO SIN MOVIMIENTO</t>
@@ -30164,21 +30128,9 @@
           <t>YOLANDA OLIVA</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>OPERATIVO SIN MOVIMIENTO</t>
@@ -32319,21 +32271,9 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -32865,21 +32805,9 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
